--- a/LOGS/c7762008-71de-41b3-bc99-68ac778cba31/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/c7762008-71de-41b3-bc99-68ac778cba31/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="123">
   <si>
     <t>rows</t>
   </si>
@@ -46,6 +46,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Finished goods at cost</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>None Property, plant and equipment</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>Net deferred tax assets at31 March 2023 $</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>CURRENT TAX EXPENSE Current year</t>
   </si>
   <si>
@@ -112,7 +121,7 @@
     <t>DEFERRED TAX EXPENSE Deferred tax assets resulting from tax losses</t>
   </si>
   <si>
-    <t>DEFERRED TAX EXPENSE 2022 nan</t>
+    <t>DEFERRED TAX EXPENSE Total</t>
   </si>
   <si>
     <t>DEFERRED TAX EXPENSE Total income tax expense</t>
@@ -199,6 +208,9 @@
     <t>Equipment Furniture and fittings Total Motor Leasehold vehicles improvement</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>None Less than one year</t>
   </si>
   <si>
@@ -217,6 +229,9 @@
     <t>More than five years Total cash outflow for leases</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>COST Addition</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>None Trade Creditors and accruals GST Payable</t>
   </si>
   <si>
@@ -271,6 +289,9 @@
     <t>None Total Trade and Other Payables</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>CURRENT Liability for annual leave</t>
   </si>
   <si>
@@ -292,12 +313,18 @@
     <t>NON-CURRENT Note 14 Provisions</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>CURRENT Warranty provision</t>
   </si>
   <si>
     <t>NON-CURRENT Warranty provision</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None In issue at 31 March 2022</t>
   </si>
   <si>
@@ -316,6 +343,9 @@
     <t>Ordinary shares partly paid Ordinary shares partly paid No.</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>From continuing operations Sale of goods</t>
   </si>
   <si>
@@ -337,6 +367,9 @@
     <t>TIMING OF REVENUE RECOGNITION Note 3 Other Income</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>None Miscellaneous income</t>
   </si>
   <si>
@@ -346,22 +379,28 @@
     <t>None Note 4 Net Finance Costs</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>In AUD Interest income</t>
   </si>
   <si>
     <t>In AUD Finance income</t>
   </si>
   <si>
-    <t>Total Interest expense</t>
-  </si>
-  <si>
-    <t>Total Foreign exchange loss</t>
-  </si>
-  <si>
-    <t>Total Finance costs</t>
-  </si>
-  <si>
-    <t>Total Net finance costs recognised in profit or loss</t>
+    <t>In AUD Interest expense</t>
+  </si>
+  <si>
+    <t>In AUD Foreign exchange loss</t>
+  </si>
+  <si>
+    <t>In AUD Finance costs</t>
+  </si>
+  <si>
+    <t>In AUD Net finance costs recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -731,13 +770,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,13 +789,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -764,13 +806,16 @@
       <c r="D2">
         <v>644026</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -778,13 +823,16 @@
       <c r="D3">
         <v>41620</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -792,13 +840,16 @@
       <c r="D4">
         <v>-231190</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -806,13 +857,16 @@
       <c r="D5">
         <v>454456</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -820,13 +874,16 @@
       <c r="D6">
         <v>454456</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -834,13 +891,16 @@
       <c r="D7">
         <v>454456</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -848,13 +908,16 @@
       <c r="D8">
         <v>-406236</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -862,13 +925,16 @@
       <c r="D9">
         <v>-84215</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -876,13 +942,16 @@
       <c r="D10">
         <v>231190</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -890,13 +959,16 @@
       <c r="D11">
         <v>-259261</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -904,13 +976,16 @@
       <c r="D12">
         <v>-259261</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -918,13 +993,16 @@
       <c r="D13">
         <v>-84739</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -932,13 +1010,16 @@
       <c r="D14">
         <v>-344000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -946,13 +1027,16 @@
       <c r="D15">
         <v>195195</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -960,13 +1044,16 @@
       <c r="D16">
         <v>110456</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -974,13 +1061,16 @@
       <c r="D17">
         <v>2023</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -988,13 +1078,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1002,13 +1095,16 @@
       <c r="D19">
         <v>644026</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1016,13 +1112,16 @@
       <c r="D20">
         <v>41620</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1030,13 +1129,16 @@
       <c r="D21">
         <v>-231190</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -1044,13 +1146,16 @@
       <c r="D22">
         <v>454456</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1058,13 +1163,16 @@
       <c r="D23">
         <v>454456</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -1072,13 +1180,16 @@
       <c r="D24">
         <v>454456</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1086,13 +1197,16 @@
       <c r="D25">
         <v>-406236</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -1100,13 +1214,16 @@
       <c r="D26">
         <v>-84215</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1114,13 +1231,16 @@
       <c r="D27">
         <v>231190</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -1128,13 +1248,16 @@
       <c r="D28">
         <v>-259261</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1142,13 +1265,16 @@
       <c r="D29">
         <v>-259261</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -1156,13 +1282,16 @@
       <c r="D30">
         <v>-84739</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -1170,13 +1299,16 @@
       <c r="D31">
         <v>-344000</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1184,13 +1316,16 @@
       <c r="D32">
         <v>195195</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -1198,13 +1333,16 @@
       <c r="D33">
         <v>110456</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -1212,19 +1350,25 @@
       <c r="D34">
         <v>2022</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C35">
         <v>2023</v>
       </c>
       <c r="D35">
         <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1234,13 +1378,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,13 +1397,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1267,13 +1414,16 @@
       <c r="D2">
         <v>617441</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1281,13 +1431,16 @@
       <c r="D3">
         <v>125801</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1295,13 +1448,16 @@
       <c r="D4">
         <v>179243</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1309,13 +1465,16 @@
       <c r="D5">
         <v>1054069</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1323,13 +1482,16 @@
       <c r="D6">
         <v>1976554</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1337,13 +1499,16 @@
       <c r="D7">
         <v>528184</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1351,13 +1516,16 @@
       <c r="D8">
         <v>100957</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1365,13 +1533,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1379,19 +1550,25 @@
       <c r="D10">
         <v>982947</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>1612088</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1413,13 +1590,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,159 +1609,204 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>215161</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>167803</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>382964</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>22510</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>22510</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>188013</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>118927</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>306940</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>70539</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>70539</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1594,13 +1816,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,13 +1835,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1627,13 +1852,16 @@
       <c r="D2">
         <v>88381</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1641,13 +1869,16 @@
       <c r="D3">
         <v>88381</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1655,13 +1886,16 @@
       <c r="D4">
         <v>88381</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1669,13 +1903,16 @@
       <c r="D5">
         <v>88381</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1683,13 +1920,16 @@
       <c r="D6">
         <v>82768</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1697,13 +1937,16 @@
       <c r="D7">
         <v>82768</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1711,19 +1954,25 @@
       <c r="D8">
         <v>82769</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>82769</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1733,13 +1982,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,13 +2001,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1766,13 +2018,16 @@
       <c r="D2">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1780,13 +2035,16 @@
       <c r="D3">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1794,13 +2052,16 @@
       <c r="D4">
         <v>100335</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1808,13 +2069,16 @@
       <c r="D5">
         <v>100335</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1822,13 +2086,16 @@
       <c r="D6">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1836,13 +2103,16 @@
       <c r="D7">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1850,19 +2120,25 @@
       <c r="D8">
         <v>200000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>2023</v>
       </c>
       <c r="D9">
         <v>200000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1872,13 +2148,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1891,159 +2167,204 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>18880341</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>16471157</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2409184</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>18880341</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>18880341</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>2023</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>16298851</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>14221714</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2077137</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>16298851</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>16298851</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2053,13 +2374,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,93 +2393,120 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>59928</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>59928</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2168,13 +2516,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,13 +2535,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2201,13 +2552,16 @@
       <c r="D2">
         <v>94899</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2215,13 +2569,16 @@
       <c r="D3">
         <v>94899</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2229,13 +2586,16 @@
       <c r="D4">
         <v>-63946</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2243,13 +2603,16 @@
       <c r="D5">
         <v>-25424</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2257,13 +2620,16 @@
       <c r="D6">
         <v>-89370</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2271,13 +2637,16 @@
       <c r="D7">
         <v>5529</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2285,13 +2654,16 @@
       <c r="D8">
         <v>676</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2299,13 +2671,16 @@
       <c r="D9">
         <v>676</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2313,13 +2688,16 @@
       <c r="D10">
         <v>-69270</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2327,13 +2705,16 @@
       <c r="D11">
         <v>-41365</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2341,19 +2722,25 @@
       <c r="D12">
         <v>-110635</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
         <v>-109959</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2387,13 +2774,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2406,13 +2793,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2420,13 +2810,16 @@
       <c r="D2">
         <v>3795639</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2434,13 +2827,16 @@
       <c r="D3">
         <v>118858</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2448,13 +2844,16 @@
       <c r="D4">
         <v>3914497</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2462,13 +2861,16 @@
       <c r="D5">
         <v>-212115</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2476,13 +2878,16 @@
       <c r="D6">
         <v>3702382</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2490,13 +2895,16 @@
       <c r="D7">
         <v>45041</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2504,13 +2912,16 @@
       <c r="D8">
         <v>3747423</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2518,13 +2929,16 @@
       <c r="D9">
         <v>4331629</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2532,13 +2946,16 @@
       <c r="D10">
         <v>86745</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2546,13 +2963,16 @@
       <c r="D11">
         <v>4418374</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2560,13 +2980,16 @@
       <c r="D12">
         <v>-105685</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2574,13 +2997,16 @@
       <c r="D13">
         <v>4312689</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2588,19 +3014,25 @@
       <c r="D14">
         <v>42528</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>4355217</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2610,13 +3042,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2629,13 +3061,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2643,13 +3078,16 @@
       <c r="D2">
         <v>-8624</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2657,13 +3095,16 @@
       <c r="D3">
         <v>31706</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2671,13 +3112,16 @@
       <c r="D4">
         <v>113244</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2685,13 +3129,16 @@
       <c r="D5">
         <v>81824</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2699,13 +3146,16 @@
       <c r="D6">
         <v>87573</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2713,13 +3163,16 @@
       <c r="D7">
         <v>121749</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2727,13 +3180,16 @@
       <c r="D8">
         <v>427472</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2741,13 +3197,16 @@
       <c r="D9">
         <v>15026</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2755,13 +3214,16 @@
       <c r="D10">
         <v>31928</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2769,13 +3231,16 @@
       <c r="D11">
         <v>-99</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2783,13 +3248,16 @@
       <c r="D12">
         <v>17663</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2797,13 +3265,16 @@
       <c r="D13">
         <v>-72252</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2811,13 +3282,16 @@
       <c r="D14">
         <v>-121749</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -2825,13 +3299,16 @@
       <c r="D15">
         <v>-129483</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2839,13 +3316,16 @@
       <c r="D16">
         <v>6402</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2853,13 +3333,16 @@
       <c r="D17">
         <v>63634</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2867,13 +3350,16 @@
       <c r="D18">
         <v>113145</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2881,13 +3367,16 @@
       <c r="D19">
         <v>99487</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2895,13 +3384,16 @@
       <c r="D20">
         <v>15321</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2909,19 +3401,25 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
       <c r="D22">
         <v>297989</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2931,13 +3429,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2950,209 +3448,254 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D2">
         <v>502229</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D5">
         <v>502229</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D6">
         <v>129483</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D8">
         <v>129483</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D9">
         <v>631712</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D10">
         <v>1965297</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D11">
         <v>589589</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D12">
         <v>-7302</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D14">
         <v>49425</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D15">
         <v>631712</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -3160,13 +3703,16 @@
       <c r="D16">
         <v>365552</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -3174,13 +3720,16 @@
       <c r="D17">
         <v>-23330</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -3188,13 +3737,16 @@
       <c r="D18">
         <v>-272415</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -3202,13 +3754,16 @@
       <c r="D19">
         <v>69807</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -3216,13 +3771,16 @@
       <c r="D20">
         <v>305723</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -3230,13 +3788,16 @@
       <c r="D21">
         <v>121749</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -3244,13 +3805,16 @@
       <c r="D22">
         <v>427472</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -3258,13 +3822,16 @@
       <c r="D23">
         <v>357665</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -3272,13 +3839,16 @@
       <c r="D24">
         <v>1232198</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -3286,13 +3856,16 @@
       <c r="D25">
         <v>369659</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -3300,13 +3873,16 @@
       <c r="D26">
         <v>-6056</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -3314,13 +3890,16 @@
       <c r="D27">
         <v>-23330</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -3328,19 +3907,25 @@
       <c r="D28">
         <v>17392</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>2022</v>
       </c>
       <c r="D29">
         <v>357665</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3350,13 +3935,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3369,13 +3954,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -3383,13 +3971,16 @@
       <c r="D2">
         <v>4874</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3397,13 +3988,16 @@
       <c r="D3">
         <v>29444</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3411,13 +4005,16 @@
       <c r="D4">
         <v>113084</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3425,13 +4022,16 @@
       <c r="D5">
         <v>100191</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3439,13 +4039,16 @@
       <c r="D6">
         <v>35027</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3453,13 +4056,16 @@
       <c r="D7">
         <v>394164</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3467,13 +4073,16 @@
       <c r="D8">
         <v>676784</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3481,13 +4090,16 @@
       <c r="D9">
         <v>-13498</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3495,13 +4107,16 @@
       <c r="D10">
         <v>2262</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3509,13 +4124,16 @@
       <c r="D11">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3523,13 +4141,16 @@
       <c r="D12">
         <v>-18367</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -3537,13 +4158,16 @@
       <c r="D13">
         <v>52546</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -3551,13 +4175,16 @@
       <c r="D14">
         <v>-272415</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -3565,13 +4192,16 @@
       <c r="D15">
         <v>-249312</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -3579,13 +4209,16 @@
       <c r="D16">
         <v>-8624</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -3593,13 +4226,16 @@
       <c r="D17">
         <v>31706</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -3607,13 +4243,16 @@
       <c r="D18">
         <v>113244</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -3621,13 +4260,16 @@
       <c r="D19">
         <v>81824</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -3635,13 +4277,16 @@
       <c r="D20">
         <v>87573</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -3649,19 +4294,25 @@
       <c r="D21">
         <v>121749</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
       <c r="D22">
         <v>427472</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3671,13 +4322,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3690,13 +4341,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3704,13 +4358,16 @@
       <c r="D2">
         <v>904929</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3718,13 +4375,16 @@
       <c r="D3">
         <v>38023</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3732,13 +4392,16 @@
       <c r="D4">
         <v>-63990</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3746,13 +4409,16 @@
       <c r="D5">
         <v>878962</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3760,13 +4426,16 @@
       <c r="D6">
         <v>878962</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3774,13 +4443,16 @@
       <c r="D7">
         <v>74198</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3788,13 +4460,16 @@
       <c r="D8">
         <v>-161642</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3802,13 +4477,16 @@
       <c r="D9">
         <v>791518</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3816,13 +4494,16 @@
       <c r="D10">
         <v>-756862</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3830,13 +4511,16 @@
       <c r="D11">
         <v>-86981</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3844,13 +4528,16 @@
       <c r="D12">
         <v>63990</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3858,13 +4545,16 @@
       <c r="D13">
         <v>-779853</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3872,13 +4562,16 @@
       <c r="D14">
         <v>-779853</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3886,13 +4579,16 @@
       <c r="D15">
         <v>-65245</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -3900,13 +4596,16 @@
       <c r="D16">
         <v>161642</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -3914,13 +4613,16 @@
       <c r="D17">
         <v>-683456</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -3928,13 +4630,16 @@
       <c r="D18">
         <v>99109</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -3942,13 +4647,16 @@
       <c r="D19">
         <v>108062</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -3956,13 +4664,16 @@
       <c r="D20">
         <v>796943</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -3970,13 +4681,16 @@
       <c r="D21">
         <v>14005</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -3984,13 +4698,16 @@
       <c r="D22">
         <v>-130723</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -3998,13 +4715,16 @@
       <c r="D23">
         <v>680225</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -4012,13 +4732,16 @@
       <c r="D24">
         <v>680225</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -4026,13 +4749,16 @@
       <c r="D25">
         <v>58737</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -4040,13 +4766,16 @@
       <c r="D26">
         <v>-2668</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -4054,13 +4783,16 @@
       <c r="D27">
         <v>736294</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -4068,13 +4800,16 @@
       <c r="D28">
         <v>-423381</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -4082,13 +4817,16 @@
       <c r="D29">
         <v>-75729</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -4096,13 +4834,16 @@
       <c r="D30">
         <v>129228</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -4110,13 +4851,16 @@
       <c r="D31">
         <v>-369882</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -4124,13 +4868,16 @@
       <c r="D32">
         <v>-369882</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -4138,13 +4885,16 @@
       <c r="D33">
         <v>-58901</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -4152,13 +4902,16 @@
       <c r="D34">
         <v>2668</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -4166,13 +4919,16 @@
       <c r="D35">
         <v>-426115</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -4180,13 +4936,16 @@
       <c r="D36">
         <v>310343</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -4194,13 +4953,16 @@
       <c r="D37">
         <v>310179</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -4208,13 +4970,16 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -4222,13 +4987,16 @@
       <c r="D39">
         <v>7900</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -4236,13 +5004,16 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -4250,13 +5021,16 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -4264,13 +5038,16 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -4278,13 +5055,16 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -4292,13 +5072,16 @@
       <c r="D44">
         <v>-4095</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -4306,13 +5089,16 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -4320,13 +5106,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -4334,13 +5123,16 @@
       <c r="D47">
         <v>-8908</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -4348,13 +5140,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -4362,13 +5157,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -4376,13 +5174,16 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>2023</v>
@@ -4390,13 +5191,16 @@
       <c r="D51">
         <v>-8948</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>2023</v>
@@ -4404,13 +5208,16 @@
       <c r="D52">
         <v>4095</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>2023</v>
@@ -4418,13 +5225,16 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>2022</v>
@@ -4432,13 +5242,16 @@
       <c r="D54">
         <v>47468</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>2023</v>
@@ -4446,13 +5259,16 @@
       <c r="D55">
         <v>38520</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>2023</v>
@@ -4460,13 +5276,16 @@
       <c r="D56">
         <v>1878506</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>2023</v>
@@ -4474,13 +5293,16 @@
       <c r="D57">
         <v>59928</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>2023</v>
@@ -4488,13 +5310,16 @@
       <c r="D58">
         <v>-194713</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>2023</v>
@@ -4502,13 +5327,16 @@
       <c r="D59">
         <v>1743721</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>2023</v>
@@ -4516,13 +5344,16 @@
       <c r="D60">
         <v>1743721</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C61">
         <v>2023</v>
@@ -4530,13 +5361,16 @@
       <c r="D61">
         <v>132935</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>2023</v>
@@ -4544,13 +5378,16 @@
       <c r="D62">
         <v>-168405</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C63">
         <v>2023</v>
@@ -4558,13 +5395,16 @@
       <c r="D63">
         <v>1708251</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>2023</v>
@@ -4572,13 +5412,16 @@
       <c r="D64">
         <v>-1308401</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>2023</v>
@@ -4586,13 +5429,16 @@
       <c r="D65">
         <v>-171618</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C66">
         <v>2023</v>
@@ -4600,13 +5446,16 @@
       <c r="D66">
         <v>193218</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C67">
         <v>2023</v>
@@ -4614,13 +5463,16 @@
       <c r="D67">
         <v>-1286801</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C68">
         <v>2023</v>
@@ -4628,13 +5480,16 @@
       <c r="D68">
         <v>-1286801</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C69">
         <v>2023</v>
@@ -4642,13 +5497,16 @@
       <c r="D69">
         <v>-133094</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C70">
         <v>2023</v>
@@ -4656,13 +5514,16 @@
       <c r="D70">
         <v>168405</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C71">
         <v>2023</v>
@@ -4670,13 +5531,16 @@
       <c r="D71">
         <v>-1251490</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C72">
         <v>2022</v>
@@ -4684,19 +5548,25 @@
       <c r="D72">
         <v>456920</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C73">
         <v>2023</v>
       </c>
       <c r="D73">
         <v>456761</v>
+      </c>
+      <c r="E73" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4718,13 +5588,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4737,13 +5607,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4751,13 +5624,16 @@
       <c r="D2">
         <v>350581</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4765,13 +5641,16 @@
       <c r="D3">
         <v>974532</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4779,13 +5658,16 @@
       <c r="D4">
         <v>1325113</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4793,13 +5675,16 @@
       <c r="D5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4807,13 +5692,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4821,13 +5709,16 @@
       <c r="D7">
         <v>-310598</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -4835,13 +5726,16 @@
       <c r="D8">
         <v>333149</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -4849,13 +5743,16 @@
       <c r="D9">
         <v>1242637</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -4863,13 +5760,16 @@
       <c r="D10">
         <v>1575786</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -4877,13 +5777,16 @@
       <c r="D11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -4891,19 +5794,25 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
         <v>-293162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
